--- a/Cronograma tcc_definitivo.xlsx
+++ b/Cronograma tcc_definitivo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Etec\TCC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Etec\TCC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -159,7 +159,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +196,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -265,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -298,17 +304,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -617,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,101 +652,101 @@
     </row>
     <row r="2" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
       <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="23" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -764,7 +772,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="21"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -781,7 +789,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="22"/>
+      <c r="D9" s="19"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -798,7 +806,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="22"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -815,7 +823,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="22"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -833,8 +841,8 @@
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
@@ -850,8 +858,8 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="2"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="22"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -902,7 +910,7 @@
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="9"/>
+      <c r="F16" s="13"/>
       <c r="G16" s="9"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -936,7 +944,7 @@
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="9"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
@@ -985,8 +993,8 @@
         <v>19</v>
       </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="7"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -1003,7 +1011,7 @@
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="13"/>
-      <c r="E22" s="9"/>
+      <c r="E22" s="13"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
@@ -1020,7 +1028,7 @@
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
-      <c r="E23" s="9"/>
+      <c r="E23" s="13"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
@@ -1037,7 +1045,7 @@
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
-      <c r="E24" s="9"/>
+      <c r="E24" s="21"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
@@ -1055,7 +1063,7 @@
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="10"/>
-      <c r="F25" s="9"/>
+      <c r="F25" s="13"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="8"/>
@@ -1072,7 +1080,7 @@
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
-      <c r="F26" s="9"/>
+      <c r="F26" s="13"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="10"/>
@@ -1088,8 +1096,8 @@
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="10"/>
@@ -1105,8 +1113,8 @@
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
@@ -1123,7 +1131,7 @@
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="7"/>
+      <c r="F29" s="19"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
@@ -1140,7 +1148,7 @@
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="7"/>
+      <c r="F30" s="19"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -1156,8 +1164,8 @@
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
@@ -1173,8 +1181,8 @@
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>

--- a/Cronograma tcc_definitivo.xlsx
+++ b/Cronograma tcc_definitivo.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20400"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Etec\TCC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Etec\TCC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CAE172-344F-49A7-9AF1-209B1B607E03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="44">
   <si>
     <t>Cronograma de termino de conclusão de curso (Daniel José Dantas Jacometo, João Pedro Garcia Girotto e Manoela Pinheiro da Silva).</t>
   </si>
@@ -158,7 +159,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -271,11 +272,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -291,9 +291,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -412,6 +409,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -447,6 +461,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -622,11 +653,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,242 +666,202 @@
     <col min="3" max="12" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-    </row>
-    <row r="2" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="24" t="s">
+    <row r="2" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="23" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+    </row>
+    <row r="3" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+    </row>
+    <row r="4" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="23" t="s">
+      <c r="L5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
+    </row>
+    <row r="6" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+    </row>
+    <row r="7" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="12" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
       <c r="I13" s="2"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4" t="s">
+    </row>
+    <row r="14" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C14" s="1"/>
@@ -883,431 +874,380 @@
       <c r="J14" s="2"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4" t="s">
+    </row>
+    <row r="15" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4" t="s">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4" t="s">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="2"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="20"/>
       <c r="I17" s="2"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4" t="s">
+    </row>
+    <row r="18" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4" t="s">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4" t="s">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="6" t="s">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4" t="s">
+      <c r="C21" s="3"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4" t="s">
+      <c r="C22" s="9"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4" t="s">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4" t="s">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4" t="s">
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4" t="s">
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4" t="s">
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="6" t="s">
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="6" t="s">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="6" t="s">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="11" t="s">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="6" t="s">
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
       <c r="N33" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="6" t="s">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="16" t="s">
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="3"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="6" t="s">
+      <c r="C36" s="12"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="3"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="12" t="s">
+      <c r="C37" s="8"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="3"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="3"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1330,7 +1270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1342,7 +1282,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Cronograma tcc_definitivo.xlsx
+++ b/Cronograma tcc_definitivo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20400"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Etec\TCC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FLÁVIO TCC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CAE172-344F-49A7-9AF1-209B1B607E03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D73F478-733A-448D-BD61-0F0B49022008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Cronograma de termino de conclusão de curso (Daniel José Dantas Jacometo, João Pedro Garcia Girotto e Manoela Pinheiro da Silva).</t>
   </si>
@@ -120,9 +120,6 @@
     <t>Criação do Banco(MySQL)</t>
   </si>
   <si>
-    <t>Criação das funções em PHP</t>
-  </si>
-  <si>
     <t>Teste de Request e Insert no Banco</t>
   </si>
   <si>
@@ -154,6 +151,9 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Criação das funções em JavaScript</t>
   </si>
 </sst>
 </file>
@@ -272,10 +272,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -334,9 +333,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -374,9 +373,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -409,26 +408,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -461,26 +443,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -656,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,202 +632,202 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
     </row>
     <row r="3" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
     </row>
     <row r="4" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="21" t="s">
+      <c r="L5" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
     </row>
     <row r="7" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
     </row>
     <row r="8" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
     </row>
     <row r="9" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
     </row>
     <row r="10" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
     </row>
     <row r="11" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
     </row>
     <row r="12" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
     </row>
     <row r="13" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
-        <v>40</v>
+      <c r="B13" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="2"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>41</v>
+      <c r="B14" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -871,383 +836,383 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="2"/>
+      <c r="J14" s="19"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="7"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="6"/>
     </row>
     <row r="16" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-    </row>
-    <row r="17" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="1"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="14"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="6"/>
     </row>
     <row r="19" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="6"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="6"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="6"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="2"/>
+      <c r="N33" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="N33" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="5"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="12">
